--- a/medicine/Enfance/Georges_(série_de_romans)/Georges_(série_de_romans).xlsx
+++ b/medicine/Enfance/Georges_(série_de_romans)/Georges_(série_de_romans).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges est une série de romans britanniques de Lucy Hawking et Stephen Hawking  publiés entre 2007 et 2018. Christophe Galfard a collaboré à l'écriture du premier roman.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les romans racontent l'histoire de Georges Greenby, un enfant qui découvre ses nouveaux voisins, Eric et sa fille Annie. Avec eux, il va vivre des aventures extraordinaires grâce à l'ordinateur le plus puissant du monde, Cosmos, qui crée des portes pour voyager dans l'espace. Mais le terrible professeur Tiburce Rex, alias T-Rex, nourrit de sombres projets. T-Rex va faire ce qu'il peut afin de leur mettre des bâtons dans les roues. Chaque volet de la saga est constitué d'une histoire avec, de temps en temps, une coupure avec une fiche sur les découvertes de Stephen Hawking, dans le livre les trésors du cosmos, les fiches sont en fait un autre livre appartenant à Georges nommé Le Petit Guide de l'univers.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georges et les Secrets de l'univers, Pocket Jeunesse, 2007 (George's Secret Key to the Universe, Doubleday, 2007)En collaboration avec Christophe Galfard
 Georges et les Trésors du cosmos, Pocket Jeunesse, 2009 (George's Cosmic Treasure Hunt, Doubleday, 2009)
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Georges et les Secrets de l'univers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le premier volet de la trilogie, il raconte les premières aventures de Georges contre T-Rex (un ancien scientifique), et, dans cet opus, il rencontre pour la première fois la famille d'Eric.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Georges et les Trésors du cosmos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le deuxième volet de la série. On y découvre plus de choses sur Cosmos l'ordinateur et on revoit Rex ainsi que son ordinateur aussi puissant que Cosmos, Pooky, qui a l'apparence d'un hamster.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Georges et le Big Bang</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le troisième volet, on revient sur la création du monde et le Big Bang tout en luttant contre une étrange conspiration.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Georges et le Code secret</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'argent s'envole des distributeurs de billets, les avions refusent de décoller et les caisses enregistreuses des supermarchés ne fonctionnent plus… Quel chaos... À Foxbridge, Georges et Annie s'ennuient, ils rêvent de repartir dans l'espace pour de nouvelles aventures intergalactiques.</t>
         </is>
@@ -683,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,7 +725,9 @@
           <t>Georges et la Lune bleue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Georges et Annie participent à un programme pour astronautes en herbe. Objectif : la planète Mars ! Mais à peine arrivés au centre de formation, ils apprennent l'existence d'une étrange mission secrète. Quelque chose ne tourne pas rond sur la base spatiale Kosmodrome 2..</t>
         </is>
@@ -713,7 +739,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Georges_(s%C3%A9rie_de_romans)</t>
+          <t>Georges_(série_de_romans)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -733,14 +759,57 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Personnages
-Georges Greenby
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Georges Greenby
 Eric
 Annie
 Tiburce Rex
-Alioth Merak
-Les non-humains
-Cosmos
+Alioth Merak</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Georges_(série_de_romans)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_(s%C3%A9rie_de_romans)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'univers de la série</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Les non-humains</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cosmos
 Pooky
 Boltzmann brains</t>
         </is>
